--- a/homework1/Selectionsort.xlsx
+++ b/homework1/Selectionsort.xlsx
@@ -149,76 +149,53 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>sortingtime</c:v>
+            <c:v>초</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.312</c:v>
+                  <c:v>21000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67100000000000004</c:v>
+                  <c:v>31000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7470000000000001</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1180000000000003</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0720000000000001</c:v>
+                  <c:v>61000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5830000000000002</c:v>
+                  <c:v>71000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6130000000000004</c:v>
+                  <c:v>81000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9589999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8330000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.093</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.023999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.122</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.103000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.582000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.042999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.774000000000001</c:v>
+                  <c:v>91000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -235,11 +212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69626368"/>
-        <c:axId val="64580416"/>
+        <c:axId val="100100608"/>
+        <c:axId val="92050496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69626368"/>
+        <c:axId val="100100608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -249,7 +226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64580416"/>
+        <c:crossAx val="92050496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -257,7 +234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64580416"/>
+        <c:axId val="92050496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,7 +245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69626368"/>
+        <c:crossAx val="100100608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -300,10 +277,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -612,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,159 +615,79 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="B5">
-        <v>9.4E-2</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="B6">
-        <v>0.312</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="B7">
-        <v>0.67100000000000004</v>
+        <v>2.5369999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>21000</v>
+        <v>41000</v>
       </c>
       <c r="B8">
-        <v>1.7470000000000001</v>
+        <v>4.6109999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>26000</v>
+        <v>51000</v>
       </c>
       <c r="B9">
-        <v>4.1180000000000003</v>
+        <v>6.641</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>31000</v>
+        <v>61000</v>
       </c>
       <c r="B10">
-        <v>4.0720000000000001</v>
+        <v>9.5030000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>36000</v>
+        <v>71000</v>
       </c>
       <c r="B11">
-        <v>6.5830000000000002</v>
+        <v>12.907</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>41000</v>
+        <v>81000</v>
       </c>
       <c r="B12">
-        <v>7.6130000000000004</v>
+        <v>16.876000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>46000</v>
+        <v>91000</v>
       </c>
       <c r="B13">
-        <v>5.9589999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>51000</v>
-      </c>
-      <c r="B14">
-        <v>6.8330000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>56000</v>
-      </c>
-      <c r="B15">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>61000</v>
-      </c>
-      <c r="B16">
-        <v>10.093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>66000</v>
-      </c>
-      <c r="B17">
-        <v>11.996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>71000</v>
-      </c>
-      <c r="B18">
-        <v>14.023999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>76000</v>
-      </c>
-      <c r="B19">
-        <v>16.122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>81000</v>
-      </c>
-      <c r="B20">
-        <v>18.103000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>86000</v>
-      </c>
-      <c r="B21">
-        <v>20.582000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>91000</v>
-      </c>
-      <c r="B22">
-        <v>22.042999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>96000</v>
-      </c>
-      <c r="B23">
-        <v>25.774000000000001</v>
+        <v>21.361000000000001</v>
       </c>
     </row>
   </sheetData>
